--- a/output/2024_BTR1/overview/overview_diff_bar.xlsx
+++ b/output/2024_BTR1/overview/overview_diff_bar.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">facet2</t>
   </si>
   <si>
-    <t xml:space="preserve">line_request</t>
+    <t xml:space="preserve">show_net</t>
   </si>
   <si>
     <t xml:space="preserve">color</t>

--- a/output/2024_BTR1/overview/overview_diff_bar.xlsx
+++ b/output/2024_BTR1/overview/overview_diff_bar.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">wm</t>
   </si>
   <si>
-    <t xml:space="preserve">Mt CO2/yr</t>
+    <t xml:space="preserve">EJ/yr</t>
   </si>
   <si>
     <t xml:space="preserve">OP-NEMS BTR Scenario with Measures Data 5-2-2024.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Carbon Sequestration|CCS|Biomass|Energy</t>
+    <t xml:space="preserve">Final Energy|Biomass Liquids</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">diffbarplot</t>
   </si>
   <si>
-    <t xml:space="preserve">Sectoral CO2 Emissions</t>
+    <t xml:space="preserve">Final Energy  - Difference from 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">BECCS</t>
+    <t xml:space="preserve">Biomass Liquids</t>
   </si>
   <si>
     <t xml:space="preserve">usa</t>
@@ -155,46 +155,40 @@
     <t xml:space="preserve">fixed</t>
   </si>
   <si>
-    <t xml:space="preserve">Carbon Sequestration|Direct Air Capture|Net</t>
+    <t xml:space="preserve">Final Energy|Biomass Solids</t>
   </si>
   <si>
-    <t xml:space="preserve">DAC</t>
+    <t xml:space="preserve">Biomass Solids</t>
   </si>
   <si>
-    <t xml:space="preserve">Carbon Sequestration|LULUCF</t>
+    <t xml:space="preserve">Final Energy|Coal</t>
   </si>
   <si>
-    <t xml:space="preserve">LULUCF</t>
+    <t xml:space="preserve">Coal</t>
   </si>
   <si>
-    <t xml:space="preserve">Emissions|CO2|Energy|Demand|Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emissions|CO2|Energy|Demand|Industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emissions|CO2|Energy|Demand|Transportation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emissions|CO2|Energy|Supply|Electricity</t>
+    <t xml:space="preserve">Final Energy|Electricity</t>
   </si>
   <si>
     <t xml:space="preserve">Electricity</t>
   </si>
   <si>
-    <t xml:space="preserve">Emissions|CO2|Energy|Supply|Petroleum Refining</t>
+    <t xml:space="preserve">Final Energy|Gas</t>
   </si>
   <si>
-    <t xml:space="preserve">Refining</t>
+    <t xml:space="preserve">Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Energy|Hydrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Energy|Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil</t>
   </si>
   <si>
     <t xml:space="preserve">USREP-ReEDS</t>
@@ -650,13 +644,13 @@
         <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.45763090343</v>
       </c>
       <c r="I2" t="s">
         <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -745,13 +739,13 @@
         <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.20165466166</v>
       </c>
       <c r="I3" t="s">
         <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
@@ -840,13 +834,13 @@
         <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>-800</v>
+        <v>0.90979846677</v>
       </c>
       <c r="I4" t="s">
         <v>37</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>38</v>
@@ -935,13 +929,13 @@
         <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>551.654785</v>
+        <v>13.20178915998</v>
       </c>
       <c r="I5" t="s">
         <v>37</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
@@ -1030,13 +1024,13 @@
         <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>731.142899203475</v>
+        <v>19.07123325093</v>
       </c>
       <c r="I6" t="s">
         <v>37</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>38</v>
@@ -1125,13 +1119,13 @@
         <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>1629.374544</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
@@ -1220,13 +1214,13 @@
         <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>1448.415405</v>
+        <v>31.9228520634</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>38</v>
@@ -1303,25 +1297,25 @@
         <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>215.976180796525</v>
+        <v>1.68714977616</v>
       </c>
       <c r="I9" t="s">
         <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
@@ -1330,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
         <v>3</v>
@@ -1381,10 +1375,10 @@
         <v>46</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>0.22951887273</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>4.32498936708</v>
       </c>
     </row>
     <row r="10">
@@ -1404,19 +1398,19 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.096814</v>
+        <v>2.29383296235</v>
       </c>
       <c r="I10" t="s">
         <v>37</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>38</v>
@@ -1425,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -1476,10 +1470,10 @@
         <v>46</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.096814</v>
+        <v>0.0921783006899997</v>
       </c>
       <c r="AE10" t="n">
-        <v>-6.68263999999986</v>
+        <v>4.32498936708</v>
       </c>
     </row>
     <row r="11">
@@ -1499,19 +1493,19 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.87227595729</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
@@ -1520,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
         <v>3</v>
@@ -1571,10 +1565,10 @@
         <v>46</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-0.0375225094799999</v>
       </c>
       <c r="AE11" t="n">
-        <v>-6.68263999999986</v>
+        <v>4.32498936708</v>
       </c>
     </row>
     <row r="12">
@@ -1594,19 +1588,19 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
       </c>
       <c r="H12" t="n">
-        <v>-800</v>
+        <v>13.88648000169</v>
       </c>
       <c r="I12" t="s">
         <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>38</v>
@@ -1615,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N12" t="s">
         <v>3</v>
@@ -1666,10 +1660,10 @@
         <v>46</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>0.684690841709997</v>
       </c>
       <c r="AE12" t="n">
-        <v>-6.68263999999986</v>
+        <v>4.32498936708</v>
       </c>
     </row>
     <row r="13">
@@ -1689,19 +1683,19 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
       </c>
       <c r="H13" t="n">
-        <v>565.393311</v>
+        <v>19.73489549247</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
@@ -1710,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N13" t="s">
         <v>3</v>
@@ -1761,10 +1755,10 @@
         <v>46</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.7385260000001</v>
+        <v>0.663662241540003</v>
       </c>
       <c r="AE13" t="n">
-        <v>-6.68263999999986</v>
+        <v>4.32498936708</v>
       </c>
     </row>
     <row r="14">
@@ -1784,19 +1778,19 @@
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
         <v>36</v>
       </c>
       <c r="H14" t="n">
-        <v>725.520567463788</v>
+        <v>0.0283708323</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
         <v>38</v>
@@ -1805,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N14" t="s">
         <v>3</v>
@@ -1856,10 +1850,10 @@
         <v>46</v>
       </c>
       <c r="AD14" t="n">
-        <v>-5.62233173968673</v>
+        <v>0.0283708323</v>
       </c>
       <c r="AE14" t="n">
-        <v>-6.68263999999986</v>
+        <v>4.32498936708</v>
       </c>
     </row>
     <row r="15">
@@ -1879,19 +1873,19 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
       </c>
       <c r="H15" t="n">
-        <v>1763.841116</v>
+        <v>34.58694285099</v>
       </c>
       <c r="I15" t="s">
         <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s">
         <v>38</v>
@@ -1900,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N15" t="s">
         <v>3</v>
@@ -1951,10 +1945,10 @@
         <v>46</v>
       </c>
       <c r="AD15" t="n">
-        <v>134.466572</v>
+        <v>2.66409078759</v>
       </c>
       <c r="AE15" t="n">
-        <v>-6.68263999999986</v>
+        <v>4.32498936708</v>
       </c>
     </row>
     <row r="16">
@@ -1968,25 +1962,25 @@
         <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
         <v>36</v>
       </c>
       <c r="H16" t="n">
-        <v>1301.572998</v>
+        <v>1.67352249204</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
         <v>38</v>
@@ -1995,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
         <v>3</v>
@@ -2046,10 +2040,10 @@
         <v>46</v>
       </c>
       <c r="AD16" t="n">
-        <v>-146.842407</v>
+        <v>0.21589158861</v>
       </c>
       <c r="AE16" t="n">
-        <v>-6.68263999999986</v>
+        <v>4.27952640078</v>
       </c>
     </row>
     <row r="17">
@@ -2063,25 +2057,25 @@
         <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
       </c>
       <c r="H17" t="n">
-        <v>213.649995536212</v>
+        <v>2.30573204181</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
         <v>38</v>
@@ -2090,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N17" t="s">
         <v>3</v>
@@ -2141,10 +2135,10 @@
         <v>46</v>
       </c>
       <c r="AD17" t="n">
-        <v>-2.32618526031339</v>
+        <v>0.10407738015</v>
       </c>
       <c r="AE17" t="n">
-        <v>-6.68263999999986</v>
+        <v>4.27952640078</v>
       </c>
     </row>
     <row r="18">
@@ -2164,19 +2158,19 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.67591</v>
+        <v>0.9070858818</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s">
         <v>38</v>
@@ -2185,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N18" t="s">
         <v>3</v>
@@ -2236,10 +2230,10 @@
         <v>46</v>
       </c>
       <c r="AD18" t="n">
-        <v>-4.67591</v>
+        <v>-0.00271258496999982</v>
       </c>
       <c r="AE18" t="n">
-        <v>-802.068103</v>
+        <v>4.27952640078</v>
       </c>
     </row>
     <row r="19">
@@ -2259,19 +2253,19 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
       </c>
       <c r="H19" t="n">
-        <v>-3</v>
+        <v>14.96464442892</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
         <v>38</v>
@@ -2280,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N19" t="s">
         <v>3</v>
@@ -2331,10 +2325,10 @@
         <v>46</v>
       </c>
       <c r="AD19" t="n">
-        <v>-3</v>
+        <v>1.76285526894</v>
       </c>
       <c r="AE19" t="n">
-        <v>-802.068103</v>
+        <v>4.27952640078</v>
       </c>
     </row>
     <row r="20">
@@ -2354,19 +2348,19 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
       </c>
       <c r="H20" t="n">
-        <v>-800</v>
+        <v>20.28444980337</v>
       </c>
       <c r="I20" t="s">
         <v>37</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
         <v>38</v>
@@ -2375,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N20" t="s">
         <v>3</v>
@@ -2426,10 +2420,10 @@
         <v>46</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.21321655244</v>
       </c>
       <c r="AE20" t="n">
-        <v>-802.068103</v>
+        <v>4.27952640078</v>
       </c>
     </row>
     <row r="21">
@@ -2449,19 +2443,19 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
       </c>
       <c r="H21" t="n">
-        <v>561.698958</v>
+        <v>0.283708323</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K21" t="s">
         <v>38</v>
@@ -2470,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N21" t="s">
         <v>3</v>
@@ -2521,10 +2515,10 @@
         <v>46</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.044173</v>
+        <v>0.283708323</v>
       </c>
       <c r="AE21" t="n">
-        <v>-802.068103</v>
+        <v>4.27952640078</v>
       </c>
     </row>
     <row r="22">
@@ -2544,19 +2538,19 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
       </c>
       <c r="H22" t="n">
-        <v>757.363425057734</v>
+        <v>32.62534193601</v>
       </c>
       <c r="I22" t="s">
         <v>37</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K22" t="s">
         <v>38</v>
@@ -2565,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N22" t="s">
         <v>3</v>
@@ -2616,10 +2610,10 @@
         <v>46</v>
       </c>
       <c r="AD22" t="n">
-        <v>26.220525854259</v>
+        <v>0.702489872610002</v>
       </c>
       <c r="AE22" t="n">
-        <v>-802.068103</v>
+        <v>4.27952640078</v>
       </c>
     </row>
     <row r="23">
@@ -2633,25 +2627,25 @@
         <v>33</v>
       </c>
       <c r="D23" t="n">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
       </c>
       <c r="H23" t="n">
-        <v>1601.464606</v>
+        <v>1.65025186812</v>
       </c>
       <c r="I23" t="s">
         <v>37</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K23" t="s">
         <v>38</v>
@@ -2660,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N23" t="s">
         <v>3</v>
@@ -2711,10 +2705,10 @@
         <v>46</v>
       </c>
       <c r="AD23" t="n">
-        <v>-27.909938</v>
+        <v>0.19262096469</v>
       </c>
       <c r="AE23" t="n">
-        <v>-802.068103</v>
+        <v>2.91899355483758</v>
       </c>
     </row>
     <row r="24">
@@ -2728,25 +2722,25 @@
         <v>33</v>
       </c>
       <c r="D24" t="n">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
       </c>
       <c r="H24" t="n">
-        <v>653.739075</v>
+        <v>2.37203475075</v>
       </c>
       <c r="I24" t="s">
         <v>37</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K24" t="s">
         <v>38</v>
@@ -2755,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N24" t="s">
         <v>3</v>
@@ -2806,10 +2800,10 @@
         <v>46</v>
       </c>
       <c r="AD24" t="n">
-        <v>-794.67633</v>
+        <v>0.17038008909</v>
       </c>
       <c r="AE24" t="n">
-        <v>-802.068103</v>
+        <v>2.91899355483758</v>
       </c>
     </row>
     <row r="25">
@@ -2823,25 +2817,25 @@
         <v>33</v>
       </c>
       <c r="D25" t="n">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
         <v>36</v>
       </c>
       <c r="H25" t="n">
-        <v>207.905556942266</v>
+        <v>0.88109739756</v>
       </c>
       <c r="I25" t="s">
         <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K25" t="s">
         <v>38</v>
@@ -2850,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N25" t="s">
         <v>3</v>
@@ -2901,10 +2895,10 @@
         <v>46</v>
       </c>
       <c r="AD25" t="n">
-        <v>-8.070623854259</v>
+        <v>-0.0287010692099998</v>
       </c>
       <c r="AE25" t="n">
-        <v>-802.068103</v>
+        <v>2.91899355483758</v>
       </c>
     </row>
     <row r="26">
@@ -2924,19 +2918,19 @@
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.84398</v>
+        <v>16.16174373204</v>
       </c>
       <c r="I26" t="s">
         <v>37</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K26" t="s">
         <v>38</v>
@@ -2945,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N26" t="s">
         <v>3</v>
@@ -2996,10 +2990,10 @@
         <v>46</v>
       </c>
       <c r="AD26" t="n">
-        <v>-4.84398</v>
+        <v>2.95995457206</v>
       </c>
       <c r="AE26" t="n">
-        <v>-1237.090602</v>
+        <v>2.91899355483758</v>
       </c>
     </row>
     <row r="27">
@@ -3019,19 +3013,19 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
       </c>
       <c r="H27" t="n">
-        <v>-3</v>
+        <v>20.54995078338</v>
       </c>
       <c r="I27" t="s">
         <v>37</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K27" t="s">
         <v>38</v>
@@ -3040,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="N27" t="s">
         <v>3</v>
@@ -3091,10 +3085,10 @@
         <v>46</v>
       </c>
       <c r="AD27" t="n">
-        <v>-3</v>
+        <v>1.47871753245</v>
       </c>
       <c r="AE27" t="n">
-        <v>-1237.090602</v>
+        <v>2.91899355483758</v>
       </c>
     </row>
     <row r="28">
@@ -3114,19 +3108,19 @@
         <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
       </c>
       <c r="H28" t="n">
-        <v>-800</v>
+        <v>0.425562449887585</v>
       </c>
       <c r="I28" t="s">
         <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K28" t="s">
         <v>38</v>
@@ -3135,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N28" t="s">
         <v>3</v>
@@ -3186,10 +3180,10 @@
         <v>46</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>0.425562449887585</v>
       </c>
       <c r="AE28" t="n">
-        <v>-1237.090602</v>
+        <v>2.91899355483758</v>
       </c>
     </row>
     <row r="29">
@@ -3209,19 +3203,19 @@
         <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
       </c>
       <c r="H29" t="n">
-        <v>544.531845</v>
+        <v>29.64331107927</v>
       </c>
       <c r="I29" t="s">
         <v>37</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
@@ -3230,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N29" t="s">
         <v>3</v>
@@ -3281,10 +3275,10 @@
         <v>46</v>
       </c>
       <c r="AD29" t="n">
-        <v>-7.12293999999997</v>
+        <v>-2.27954098413</v>
       </c>
       <c r="AE29" t="n">
-        <v>-1237.090602</v>
+        <v>2.91899355483758</v>
       </c>
     </row>
     <row r="30">
@@ -3298,25 +3292,25 @@
         <v>33</v>
       </c>
       <c r="D30" t="n">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E30" t="s">
         <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
       </c>
       <c r="H30" t="n">
-        <v>790.535915700682</v>
+        <v>1.65460719708</v>
       </c>
       <c r="I30" t="s">
         <v>37</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K30" t="s">
         <v>38</v>
@@ -3325,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="N30" t="s">
         <v>3</v>
@@ -3376,10 +3370,10 @@
         <v>46</v>
       </c>
       <c r="AD30" t="n">
-        <v>59.393016497207</v>
+        <v>0.19697629365</v>
       </c>
       <c r="AE30" t="n">
-        <v>-1237.090602</v>
+        <v>2.52225772749</v>
       </c>
     </row>
     <row r="31">
@@ -3393,25 +3387,25 @@
         <v>33</v>
       </c>
       <c r="D31" t="n">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
       </c>
       <c r="H31" t="n">
-        <v>1364.716079</v>
+        <v>2.43027039447</v>
       </c>
       <c r="I31" t="s">
         <v>37</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K31" t="s">
         <v>38</v>
@@ -3420,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N31" t="s">
         <v>3</v>
@@ -3471,10 +3465,10 @@
         <v>46</v>
       </c>
       <c r="AD31" t="n">
-        <v>-264.658465</v>
+        <v>0.22861573281</v>
       </c>
       <c r="AE31" t="n">
-        <v>-1237.090602</v>
+        <v>2.52225772749</v>
       </c>
     </row>
     <row r="32">
@@ -3488,25 +3482,25 @@
         <v>33</v>
       </c>
       <c r="D32" t="n">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
       </c>
       <c r="H32" t="n">
-        <v>460.305695</v>
+        <v>0.83226137247</v>
       </c>
       <c r="I32" t="s">
         <v>37</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K32" t="s">
         <v>38</v>
@@ -3515,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N32" t="s">
         <v>3</v>
@@ -3566,10 +3560,10 @@
         <v>46</v>
       </c>
       <c r="AD32" t="n">
-        <v>-988.10971</v>
+        <v>-0.0775370942999999</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1237.090602</v>
+        <v>2.52225772749</v>
       </c>
     </row>
     <row r="33">
@@ -3583,25 +3577,25 @@
         <v>33</v>
       </c>
       <c r="D33" t="n">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E33" t="s">
         <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
       </c>
       <c r="H33" t="n">
-        <v>187.227657299318</v>
+        <v>17.5737629043</v>
       </c>
       <c r="I33" t="s">
         <v>37</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K33" t="s">
         <v>38</v>
@@ -3610,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N33" t="s">
         <v>3</v>
@@ -3661,10 +3655,10 @@
         <v>46</v>
       </c>
       <c r="AD33" t="n">
-        <v>-28.748523497207</v>
+        <v>4.37197374432</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1237.090602</v>
+        <v>2.52225772749</v>
       </c>
     </row>
     <row r="34">
@@ -3684,19 +3678,19 @@
         <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.832907</v>
+        <v>20.77814448819</v>
       </c>
       <c r="I34" t="s">
         <v>37</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s">
         <v>38</v>
@@ -3705,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="N34" t="s">
         <v>3</v>
@@ -3756,10 +3750,10 @@
         <v>46</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.832907</v>
+        <v>1.70691123726</v>
       </c>
       <c r="AE34" t="n">
-        <v>-1432.22721</v>
+        <v>2.52225772749</v>
       </c>
     </row>
     <row r="35">
@@ -3779,19 +3773,19 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
       </c>
       <c r="H35" t="n">
-        <v>-1</v>
+        <v>0.567416646</v>
       </c>
       <c r="I35" t="s">
         <v>37</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K35" t="s">
         <v>38</v>
@@ -3800,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N35" t="s">
         <v>3</v>
@@ -3851,10 +3845,10 @@
         <v>46</v>
       </c>
       <c r="AD35" t="n">
-        <v>-1</v>
+        <v>0.567416646</v>
       </c>
       <c r="AE35" t="n">
-        <v>-1432.22721</v>
+        <v>2.52225772749</v>
       </c>
     </row>
     <row r="36">
@@ -3874,19 +3868,19 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
       </c>
       <c r="H36" t="n">
-        <v>-800</v>
+        <v>27.45075323115</v>
       </c>
       <c r="I36" t="s">
         <v>37</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K36" t="s">
         <v>38</v>
@@ -3895,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N36" t="s">
         <v>3</v>
@@ -3946,10 +3940,10 @@
         <v>46</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>-4.47209883225</v>
       </c>
       <c r="AE36" t="n">
-        <v>-1432.22721</v>
+        <v>2.52225772749</v>
       </c>
     </row>
     <row r="37">
@@ -3963,25 +3957,25 @@
         <v>33</v>
       </c>
       <c r="D37" t="n">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="E37" t="s">
         <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>527.910081</v>
+        <v>1.64543969385</v>
       </c>
       <c r="I37" t="s">
         <v>37</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K37" t="s">
         <v>38</v>
@@ -3990,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N37" t="s">
         <v>3</v>
@@ -4041,10 +4035,10 @@
         <v>46</v>
       </c>
       <c r="AD37" t="n">
-        <v>-23.744704</v>
+        <v>0.18780879042</v>
       </c>
       <c r="AE37" t="n">
-        <v>-1432.22721</v>
+        <v>3.50569797012</v>
       </c>
     </row>
     <row r="38">
@@ -4058,25 +4052,25 @@
         <v>33</v>
       </c>
       <c r="D38" t="n">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="E38" t="s">
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
       </c>
       <c r="H38" t="n">
-        <v>838.36982777772</v>
+        <v>2.51636516154</v>
       </c>
       <c r="I38" t="s">
         <v>37</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K38" t="s">
         <v>38</v>
@@ -4085,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N38" t="s">
         <v>3</v>
@@ -4136,10 +4130,10 @@
         <v>46</v>
       </c>
       <c r="AD38" t="n">
-        <v>107.226928574245</v>
+        <v>0.314710499879999</v>
       </c>
       <c r="AE38" t="n">
-        <v>-1432.22721</v>
+        <v>3.50569797012</v>
       </c>
     </row>
     <row r="39">
@@ -4153,25 +4147,25 @@
         <v>33</v>
       </c>
       <c r="D39" t="n">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="E39" t="s">
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
       </c>
       <c r="H39" t="n">
-        <v>1172.167007</v>
+        <v>0.80246092032</v>
       </c>
       <c r="I39" t="s">
         <v>37</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K39" t="s">
         <v>38</v>
@@ -4180,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N39" t="s">
         <v>3</v>
@@ -4231,10 +4225,10 @@
         <v>46</v>
       </c>
       <c r="AD39" t="n">
-        <v>-457.207537</v>
+        <v>-0.10733754645</v>
       </c>
       <c r="AE39" t="n">
-        <v>-1432.22721</v>
+        <v>3.50569797012</v>
       </c>
     </row>
     <row r="40">
@@ -4248,25 +4242,25 @@
         <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s">
         <v>36</v>
       </c>
       <c r="H40" t="n">
-        <v>425.771271</v>
+        <v>18.60870955419</v>
       </c>
       <c r="I40" t="s">
         <v>37</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K40" t="s">
         <v>38</v>
@@ -4275,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N40" t="s">
         <v>3</v>
@@ -4326,10 +4320,10 @@
         <v>46</v>
       </c>
       <c r="AD40" t="n">
-        <v>-1022.644134</v>
+        <v>5.40692039421</v>
       </c>
       <c r="AE40" t="n">
-        <v>-1432.22721</v>
+        <v>3.50569797012</v>
       </c>
     </row>
     <row r="41">
@@ -4343,25 +4337,25 @@
         <v>33</v>
       </c>
       <c r="D41" t="n">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="E41" t="s">
         <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
       </c>
       <c r="H41" t="n">
-        <v>181.95132422228</v>
+        <v>20.93163396165</v>
       </c>
       <c r="I41" t="s">
         <v>37</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K41" t="s">
         <v>38</v>
@@ -4370,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N41" t="s">
         <v>3</v>
@@ -4421,10 +4415,10 @@
         <v>46</v>
       </c>
       <c r="AD41" t="n">
-        <v>-34.0248565742451</v>
+        <v>1.86040071072</v>
       </c>
       <c r="AE41" t="n">
-        <v>-1432.22721</v>
+        <v>3.50569797012</v>
       </c>
     </row>
     <row r="42">
@@ -4444,19 +4438,19 @@
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
         <v>36</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.599073</v>
+        <v>0.9929791305</v>
       </c>
       <c r="I42" t="s">
         <v>37</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K42" t="s">
         <v>38</v>
@@ -4465,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N42" t="s">
         <v>3</v>
@@ -4516,10 +4510,10 @@
         <v>46</v>
       </c>
       <c r="AD42" t="n">
-        <v>-1.599073</v>
+        <v>0.9929791305</v>
       </c>
       <c r="AE42" t="n">
-        <v>-1515.133804</v>
+        <v>3.50569797012</v>
       </c>
     </row>
     <row r="43">
@@ -4539,19 +4533,19 @@
         <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
         <v>36</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>26.77306805424</v>
       </c>
       <c r="I43" t="s">
         <v>37</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K43" t="s">
         <v>38</v>
@@ -4560,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N43" t="s">
         <v>3</v>
@@ -4611,10 +4605,10 @@
         <v>46</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>-5.14978400916</v>
       </c>
       <c r="AE43" t="n">
-        <v>-1515.133804</v>
+        <v>3.50569797012</v>
       </c>
     </row>
     <row r="44">
@@ -4628,25 +4622,25 @@
         <v>33</v>
       </c>
       <c r="D44" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="E44" t="s">
         <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
       </c>
       <c r="H44" t="n">
-        <v>-800</v>
+        <v>1.63547877798</v>
       </c>
       <c r="I44" t="s">
         <v>37</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K44" t="s">
         <v>38</v>
@@ -4655,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N44" t="s">
         <v>3</v>
@@ -4706,10 +4700,10 @@
         <v>46</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>0.17784787455</v>
       </c>
       <c r="AE44" t="n">
-        <v>-1515.133804</v>
+        <v>5.91315564105</v>
       </c>
     </row>
     <row r="45">
@@ -4723,25 +4717,25 @@
         <v>33</v>
       </c>
       <c r="D45" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="E45" t="s">
         <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s">
         <v>36</v>
       </c>
       <c r="H45" t="n">
-        <v>516.81443</v>
+        <v>2.60368591995</v>
       </c>
       <c r="I45" t="s">
         <v>37</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K45" t="s">
         <v>38</v>
@@ -4750,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N45" t="s">
         <v>3</v>
@@ -4801,10 +4795,10 @@
         <v>46</v>
       </c>
       <c r="AD45" t="n">
-        <v>-34.8403549999999</v>
+        <v>0.40203125829</v>
       </c>
       <c r="AE45" t="n">
-        <v>-1515.133804</v>
+        <v>5.91315564105</v>
       </c>
     </row>
     <row r="46">
@@ -4818,25 +4812,25 @@
         <v>33</v>
       </c>
       <c r="D46" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="E46" t="s">
         <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
       </c>
       <c r="H46" t="n">
-        <v>868.897151669674</v>
+        <v>0.76998270051</v>
       </c>
       <c r="I46" t="s">
         <v>37</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K46" t="s">
         <v>38</v>
@@ -4845,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N46" t="s">
         <v>3</v>
@@ -4896,10 +4890,10 @@
         <v>46</v>
       </c>
       <c r="AD46" t="n">
-        <v>137.7542524662</v>
+        <v>-0.13981576626</v>
       </c>
       <c r="AE46" t="n">
-        <v>-1515.133804</v>
+        <v>5.91315564105</v>
       </c>
     </row>
     <row r="47">
@@ -4913,25 +4907,25 @@
         <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="E47" t="s">
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
       </c>
       <c r="H47" t="n">
-        <v>1071.427368</v>
+        <v>20.07724249593</v>
       </c>
       <c r="I47" t="s">
         <v>37</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K47" t="s">
         <v>38</v>
@@ -4940,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N47" t="s">
         <v>3</v>
@@ -4991,10 +4985,10 @@
         <v>46</v>
       </c>
       <c r="AD47" t="n">
-        <v>-557.947176</v>
+        <v>6.87545333595</v>
       </c>
       <c r="AE47" t="n">
-        <v>-1515.133804</v>
+        <v>5.91315564105</v>
       </c>
     </row>
     <row r="48">
@@ -5008,25 +5002,25 @@
         <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="E48" t="s">
         <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
       </c>
       <c r="H48" t="n">
-        <v>428.241211</v>
+        <v>21.17719833894</v>
       </c>
       <c r="I48" t="s">
         <v>37</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K48" t="s">
         <v>38</v>
@@ -5035,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N48" t="s">
         <v>3</v>
@@ -5086,10 +5080,10 @@
         <v>46</v>
       </c>
       <c r="AD48" t="n">
-        <v>-1020.174194</v>
+        <v>2.10596508801</v>
       </c>
       <c r="AE48" t="n">
-        <v>-1515.133804</v>
+        <v>5.91315564105</v>
       </c>
     </row>
     <row r="49">
@@ -5103,25 +5097,25 @@
         <v>33</v>
       </c>
       <c r="D49" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="E49" t="s">
         <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
       </c>
       <c r="H49" t="n">
-        <v>177.648922330326</v>
+        <v>1.418541615</v>
       </c>
       <c r="I49" t="s">
         <v>37</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K49" t="s">
         <v>38</v>
@@ -5130,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N49" t="s">
         <v>3</v>
@@ -5181,10 +5175,10 @@
         <v>46</v>
       </c>
       <c r="AD49" t="n">
-        <v>-38.3272584661997</v>
+        <v>1.418541615</v>
       </c>
       <c r="AE49" t="n">
-        <v>-1515.133804</v>
+        <v>5.91315564105</v>
       </c>
     </row>
     <row r="50">
@@ -5204,19 +5198,19 @@
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G50" t="s">
         <v>36</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.550514</v>
+        <v>26.99598429891</v>
       </c>
       <c r="I50" t="s">
         <v>37</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K50" t="s">
         <v>38</v>
@@ -5225,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N50" t="s">
         <v>3</v>
@@ -5276,15 +5270,15 @@
         <v>46</v>
       </c>
       <c r="AD50" t="n">
-        <v>-1.550514</v>
+        <v>-4.92686776449001</v>
       </c>
       <c r="AE50" t="n">
-        <v>-1515.120065</v>
+        <v>5.91315564105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
@@ -5293,25 +5287,25 @@
         <v>33</v>
       </c>
       <c r="D51" t="n">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
         <v>36</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1.186034897</v>
       </c>
       <c r="I51" t="s">
         <v>37</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K51" t="s">
         <v>38</v>
@@ -5320,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N51" t="s">
         <v>3</v>
@@ -5374,12 +5368,12 @@
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>-1515.120065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
@@ -5388,25 +5382,25 @@
         <v>33</v>
       </c>
       <c r="D52" t="n">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
       </c>
       <c r="H52" t="n">
-        <v>-800</v>
+        <v>14.13922184</v>
       </c>
       <c r="I52" t="s">
         <v>37</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K52" t="s">
         <v>38</v>
@@ -5415,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N52" t="s">
         <v>3</v>
@@ -5469,12 +5463,12 @@
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>-1515.120065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -5483,25 +5477,25 @@
         <v>33</v>
       </c>
       <c r="D53" t="n">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s">
         <v>36</v>
       </c>
       <c r="H53" t="n">
-        <v>509.033119</v>
+        <v>17.50908773</v>
       </c>
       <c r="I53" t="s">
         <v>37</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K53" t="s">
         <v>38</v>
@@ -5510,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N53" t="s">
         <v>3</v>
@@ -5561,15 +5555,15 @@
         <v>46</v>
       </c>
       <c r="AD53" t="n">
-        <v>-42.6216659999999</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>-1515.120065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
@@ -5578,25 +5572,25 @@
         <v>33</v>
       </c>
       <c r="D54" t="n">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
       </c>
       <c r="H54" t="n">
-        <v>890.062249544557</v>
+        <v>34.7556159</v>
       </c>
       <c r="I54" t="s">
         <v>37</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K54" t="s">
         <v>38</v>
@@ -5605,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N54" t="s">
         <v>3</v>
@@ -5656,15 +5650,15 @@
         <v>46</v>
       </c>
       <c r="AD54" t="n">
-        <v>158.919350341082</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>-1515.120065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -5673,25 +5667,25 @@
         <v>33</v>
       </c>
       <c r="D55" t="n">
-        <v>2050</v>
+        <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
         <v>36</v>
       </c>
       <c r="H55" t="n">
-        <v>1042.902352</v>
+        <v>1.177929926</v>
       </c>
       <c r="I55" t="s">
         <v>37</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K55" t="s">
         <v>38</v>
@@ -5700,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N55" t="s">
         <v>3</v>
@@ -5751,15 +5745,15 @@
         <v>46</v>
       </c>
       <c r="AD55" t="n">
-        <v>-586.472192</v>
+        <v>-0.00810497100000007</v>
       </c>
       <c r="AE55" t="n">
-        <v>-1515.120065</v>
+        <v>-0.965905081000006</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -5768,25 +5762,25 @@
         <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>2050</v>
+        <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>
       </c>
       <c r="H56" t="n">
-        <v>447.301605</v>
+        <v>16.16038016</v>
       </c>
       <c r="I56" t="s">
         <v>37</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K56" t="s">
         <v>38</v>
@@ -5795,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N56" t="s">
         <v>3</v>
@@ -5846,15 +5840,15 @@
         <v>46</v>
       </c>
       <c r="AD56" t="n">
-        <v>-1001.1138</v>
+        <v>2.02115832</v>
       </c>
       <c r="AE56" t="n">
-        <v>-1515.120065</v>
+        <v>-0.965905081000006</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
@@ -5863,25 +5857,25 @@
         <v>33</v>
       </c>
       <c r="D57" t="n">
-        <v>2050</v>
+        <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
       </c>
       <c r="H57" t="n">
-        <v>173.694937455443</v>
+        <v>16.79936844</v>
       </c>
       <c r="I57" t="s">
         <v>37</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K57" t="s">
         <v>38</v>
@@ -5890,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N57" t="s">
         <v>3</v>
@@ -5941,15 +5935,15 @@
         <v>46</v>
       </c>
       <c r="AD57" t="n">
-        <v>-42.2812433410824</v>
+        <v>-0.709719290000002</v>
       </c>
       <c r="AE57" t="n">
-        <v>-1515.120065</v>
+        <v>-0.965905081000006</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
@@ -5958,25 +5952,25 @@
         <v>33</v>
       </c>
       <c r="D58" t="n">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
       </c>
       <c r="H58" t="n">
-        <v>-800</v>
+        <v>32.48637676</v>
       </c>
       <c r="I58" t="s">
         <v>37</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K58" t="s">
         <v>38</v>
@@ -5985,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N58" t="s">
         <v>3</v>
@@ -6036,15 +6030,15 @@
         <v>46</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>-2.26923914</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>-0.965905081000006</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
@@ -6053,25 +6047,25 @@
         <v>33</v>
       </c>
       <c r="D59" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>36</v>
       </c>
       <c r="H59" t="n">
-        <v>495.7903486</v>
+        <v>1.125366769</v>
       </c>
       <c r="I59" t="s">
         <v>37</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K59" t="s">
         <v>38</v>
@@ -6080,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N59" t="s">
         <v>3</v>
@@ -6131,15 +6125,15 @@
         <v>46</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>-0.0606681280000001</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>-3.277032338</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -6148,25 +6142,25 @@
         <v>33</v>
       </c>
       <c r="D60" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
       </c>
       <c r="H60" t="n">
-        <v>840.1332339</v>
+        <v>16.91789629</v>
       </c>
       <c r="I60" t="s">
         <v>37</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K60" t="s">
         <v>38</v>
@@ -6175,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N60" t="s">
         <v>3</v>
@@ -6226,15 +6220,15 @@
         <v>46</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>2.77867445</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>-3.277032338</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>32</v>
@@ -6243,25 +6237,25 @@
         <v>33</v>
       </c>
       <c r="D61" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
       </c>
       <c r="H61" t="n">
-        <v>1720.223097</v>
+        <v>16.23390763</v>
       </c>
       <c r="I61" t="s">
         <v>37</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K61" t="s">
         <v>38</v>
@@ -6270,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N61" t="s">
         <v>3</v>
@@ -6321,15 +6315,15 @@
         <v>46</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>-1.2751801</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>-3.277032338</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>32</v>
@@ -6338,10 +6332,10 @@
         <v>33</v>
       </c>
       <c r="D62" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F62" t="s">
         <v>57</v>
@@ -6350,13 +6344,13 @@
         <v>36</v>
       </c>
       <c r="H62" t="n">
-        <v>1219.324789</v>
+        <v>30.03575734</v>
       </c>
       <c r="I62" t="s">
         <v>37</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K62" t="s">
         <v>38</v>
@@ -6416,15 +6410,15 @@
         <v>46</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>-4.71985856</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>-3.277032338</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
         <v>32</v>
@@ -6433,25 +6427,25 @@
         <v>33</v>
       </c>
       <c r="D63" t="n">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
       </c>
       <c r="H63" t="n">
-        <v>125.8103674</v>
+        <v>1.071468324</v>
       </c>
       <c r="I63" t="s">
         <v>37</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K63" t="s">
         <v>38</v>
@@ -6460,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N63" t="s">
         <v>3</v>
@@ -6511,15 +6505,15 @@
         <v>46</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>-0.114566573</v>
       </c>
       <c r="AE63" t="n">
-        <v>0</v>
+        <v>-3.472515173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
         <v>32</v>
@@ -6528,25 +6522,25 @@
         <v>33</v>
       </c>
       <c r="D64" t="n">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s">
         <v>36</v>
       </c>
       <c r="H64" t="n">
-        <v>-800</v>
+        <v>18.46271651</v>
       </c>
       <c r="I64" t="s">
         <v>37</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K64" t="s">
         <v>38</v>
@@ -6555,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N64" t="s">
         <v>3</v>
@@ -6606,15 +6600,15 @@
         <v>46</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>4.32349467</v>
       </c>
       <c r="AE64" t="n">
-        <v>-615.0705683</v>
+        <v>-3.472515173</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
         <v>32</v>
@@ -6623,25 +6617,25 @@
         <v>33</v>
       </c>
       <c r="D65" t="n">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="E65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G65" t="s">
         <v>36</v>
       </c>
       <c r="H65" t="n">
-        <v>428.411429</v>
+        <v>16.26930812</v>
       </c>
       <c r="I65" t="s">
         <v>37</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K65" t="s">
         <v>38</v>
@@ -6650,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N65" t="s">
         <v>3</v>
@@ -6701,15 +6695,15 @@
         <v>46</v>
       </c>
       <c r="AD65" t="n">
-        <v>-67.3789196</v>
+        <v>-1.23977961</v>
       </c>
       <c r="AE65" t="n">
-        <v>-615.0705683</v>
+        <v>-3.472515173</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
         <v>32</v>
@@ -6718,25 +6712,25 @@
         <v>33</v>
       </c>
       <c r="D66" t="n">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G66" t="s">
         <v>36</v>
       </c>
       <c r="H66" t="n">
-        <v>835.7105531</v>
+        <v>28.31395224</v>
       </c>
       <c r="I66" t="s">
         <v>37</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K66" t="s">
         <v>38</v>
@@ -6745,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N66" t="s">
         <v>3</v>
@@ -6796,15 +6790,15 @@
         <v>46</v>
       </c>
       <c r="AD66" t="n">
-        <v>-4.42268080000008</v>
+        <v>-6.44166366</v>
       </c>
       <c r="AE66" t="n">
-        <v>-615.0705683</v>
+        <v>-3.472515173</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
         <v>32</v>
@@ -6813,25 +6807,25 @@
         <v>33</v>
       </c>
       <c r="D67" t="n">
-        <v>2025</v>
+        <v>2040</v>
       </c>
       <c r="E67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
         <v>36</v>
       </c>
       <c r="H67" t="n">
-        <v>1561.564206</v>
+        <v>1.024889751</v>
       </c>
       <c r="I67" t="s">
         <v>37</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K67" t="s">
         <v>38</v>
@@ -6840,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N67" t="s">
         <v>3</v>
@@ -6891,15 +6885,15 @@
         <v>46</v>
       </c>
       <c r="AD67" t="n">
-        <v>-158.658891</v>
+        <v>-0.161145146</v>
       </c>
       <c r="AE67" t="n">
-        <v>-615.0705683</v>
+        <v>-2.070361916</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
         <v>32</v>
@@ -6908,25 +6902,25 @@
         <v>33</v>
       </c>
       <c r="D68" t="n">
-        <v>2025</v>
+        <v>2040</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s">
         <v>36</v>
       </c>
       <c r="H68" t="n">
-        <v>851.025024</v>
+        <v>19.58417571</v>
       </c>
       <c r="I68" t="s">
         <v>37</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K68" t="s">
         <v>38</v>
@@ -6935,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N68" t="s">
         <v>3</v>
@@ -6986,15 +6980,15 @@
         <v>46</v>
       </c>
       <c r="AD68" t="n">
-        <v>-368.299765</v>
+        <v>5.44495387</v>
       </c>
       <c r="AE68" t="n">
-        <v>-615.0705683</v>
+        <v>-2.070361916</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
         <v>32</v>
@@ -7003,25 +6997,25 @@
         <v>33</v>
       </c>
       <c r="D69" t="n">
-        <v>2025</v>
+        <v>2040</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G69" t="s">
         <v>36</v>
       </c>
       <c r="H69" t="n">
-        <v>109.5000555</v>
+        <v>16.85691756</v>
       </c>
       <c r="I69" t="s">
         <v>37</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K69" t="s">
         <v>38</v>
@@ -7030,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N69" t="s">
         <v>3</v>
@@ -7081,15 +7075,15 @@
         <v>46</v>
       </c>
       <c r="AD69" t="n">
-        <v>-16.3103119</v>
+        <v>-0.652170170000002</v>
       </c>
       <c r="AE69" t="n">
-        <v>-615.0705683</v>
+        <v>-2.070361916</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
@@ -7098,25 +7092,25 @@
         <v>33</v>
       </c>
       <c r="D70" t="n">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G70" t="s">
         <v>36</v>
       </c>
       <c r="H70" t="n">
-        <v>-800</v>
+        <v>28.05361543</v>
       </c>
       <c r="I70" t="s">
         <v>37</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K70" t="s">
         <v>38</v>
@@ -7125,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N70" t="s">
         <v>3</v>
@@ -7176,15 +7170,15 @@
         <v>46</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>-6.70200047</v>
       </c>
       <c r="AE70" t="n">
-        <v>-1342.59179386</v>
+        <v>-2.070361916</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
         <v>32</v>
@@ -7193,25 +7187,25 @@
         <v>33</v>
       </c>
       <c r="D71" t="n">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="E71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
       </c>
       <c r="H71" t="n">
-        <v>351.0320097</v>
+        <v>1.006721316</v>
       </c>
       <c r="I71" t="s">
         <v>37</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K71" t="s">
         <v>38</v>
@@ -7220,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N71" t="s">
         <v>3</v>
@@ -7271,15 +7265,15 @@
         <v>46</v>
       </c>
       <c r="AD71" t="n">
-        <v>-144.7583389</v>
+        <v>-0.179313581</v>
       </c>
       <c r="AE71" t="n">
-        <v>-1342.59179386</v>
+        <v>0.663984578999998</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
         <v>32</v>
@@ -7288,25 +7282,25 @@
         <v>33</v>
       </c>
       <c r="D72" t="n">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="E72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s">
         <v>36</v>
       </c>
       <c r="H72" t="n">
-        <v>827.4775085</v>
+        <v>20.1371729</v>
       </c>
       <c r="I72" t="s">
         <v>37</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K72" t="s">
         <v>38</v>
@@ -7315,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N72" t="s">
         <v>3</v>
@@ -7366,15 +7360,15 @@
         <v>46</v>
       </c>
       <c r="AD72" t="n">
-        <v>-12.6557254000001</v>
+        <v>5.99795106</v>
       </c>
       <c r="AE72" t="n">
-        <v>-1342.59179386</v>
+        <v>0.663984578999998</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
         <v>32</v>
@@ -7383,25 +7377,25 @@
         <v>33</v>
       </c>
       <c r="D73" t="n">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="E73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
         <v>36</v>
       </c>
       <c r="H73" t="n">
-        <v>1383.114075</v>
+        <v>18.50530995</v>
       </c>
       <c r="I73" t="s">
         <v>37</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K73" t="s">
         <v>38</v>
@@ -7410,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N73" t="s">
         <v>3</v>
@@ -7461,15 +7455,15 @@
         <v>46</v>
       </c>
       <c r="AD73" t="n">
-        <v>-337.109022</v>
+        <v>0.99622222</v>
       </c>
       <c r="AE73" t="n">
-        <v>-1342.59179386</v>
+        <v>0.663984578999998</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
@@ -7478,10 +7472,10 @@
         <v>33</v>
       </c>
       <c r="D74" t="n">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F74" t="s">
         <v>57</v>
@@ -7490,13 +7484,13 @@
         <v>36</v>
       </c>
       <c r="H74" t="n">
-        <v>402.1031425</v>
+        <v>28.60474078</v>
       </c>
       <c r="I74" t="s">
         <v>37</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K74" t="s">
         <v>38</v>
@@ -7556,15 +7550,15 @@
         <v>46</v>
       </c>
       <c r="AD74" t="n">
-        <v>-817.2216465</v>
+        <v>-6.15087512</v>
       </c>
       <c r="AE74" t="n">
-        <v>-1342.59179386</v>
+        <v>0.663984578999998</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
         <v>32</v>
@@ -7573,25 +7567,25 @@
         <v>33</v>
       </c>
       <c r="D75" t="n">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s">
         <v>36</v>
       </c>
       <c r="H75" t="n">
-        <v>94.96330634</v>
+        <v>0.99448684</v>
       </c>
       <c r="I75" t="s">
         <v>37</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K75" t="s">
         <v>38</v>
@@ -7600,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N75" t="s">
         <v>3</v>
@@ -7651,15 +7645,15 @@
         <v>46</v>
       </c>
       <c r="AD75" t="n">
-        <v>-30.84706106</v>
+        <v>-0.191548057</v>
       </c>
       <c r="AE75" t="n">
-        <v>-1342.59179386</v>
+        <v>3.34881036299999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
@@ -7668,25 +7662,25 @@
         <v>33</v>
       </c>
       <c r="D76" t="n">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s">
         <v>36</v>
       </c>
       <c r="H76" t="n">
-        <v>-800</v>
+        <v>21.01690224</v>
       </c>
       <c r="I76" t="s">
         <v>37</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K76" t="s">
         <v>38</v>
@@ -7695,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N76" t="s">
         <v>3</v>
@@ -7746,15 +7740,15 @@
         <v>46</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>6.8776804</v>
       </c>
       <c r="AE76" t="n">
-        <v>-1715.71200388</v>
+        <v>3.34881036299999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
         <v>32</v>
@@ -7763,25 +7757,25 @@
         <v>33</v>
       </c>
       <c r="D77" t="n">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G77" t="s">
         <v>36</v>
       </c>
       <c r="H77" t="n">
-        <v>305.7711018</v>
+        <v>19.42720111</v>
       </c>
       <c r="I77" t="s">
         <v>37</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K77" t="s">
         <v>38</v>
@@ -7790,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N77" t="s">
         <v>3</v>
@@ -7841,15 +7835,15 @@
         <v>46</v>
       </c>
       <c r="AD77" t="n">
-        <v>-190.0192468</v>
+        <v>1.91811338</v>
       </c>
       <c r="AE77" t="n">
-        <v>-1715.71200388</v>
+        <v>3.34881036299999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
         <v>32</v>
@@ -7858,25 +7852,25 @@
         <v>33</v>
       </c>
       <c r="D78" t="n">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F78" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G78" t="s">
         <v>36</v>
       </c>
       <c r="H78" t="n">
-        <v>777.4216316</v>
+        <v>29.50018054</v>
       </c>
       <c r="I78" t="s">
         <v>37</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K78" t="s">
         <v>38</v>
@@ -7885,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N78" t="s">
         <v>3</v>
@@ -7936,2005 +7930,10 @@
         <v>46</v>
       </c>
       <c r="AD78" t="n">
-        <v>-62.7116023000001</v>
+        <v>-5.25543536</v>
       </c>
       <c r="AE78" t="n">
-        <v>-1715.71200388</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" t="n">
-        <v>2035</v>
-      </c>
-      <c r="E79" t="s">
-        <v>62</v>
-      </c>
-      <c r="F79" t="s">
-        <v>55</v>
-      </c>
-      <c r="G79" t="s">
-        <v>36</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1251.10515</v>
-      </c>
-      <c r="I79" t="s">
-        <v>37</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2</v>
-      </c>
-      <c r="K79" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="s">
-        <v>56</v>
-      </c>
-      <c r="N79" t="s">
-        <v>3</v>
-      </c>
-      <c r="O79" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P79" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>41</v>
-      </c>
-      <c r="R79" t="s">
-        <v>42</v>
-      </c>
-      <c r="S79" t="s">
-        <v>43</v>
-      </c>
-      <c r="T79" t="s">
-        <v>44</v>
-      </c>
-      <c r="U79" t="s">
-        <v>45</v>
-      </c>
-      <c r="V79" t="s">
-        <v>3</v>
-      </c>
-      <c r="W79" t="s">
-        <v>7</v>
-      </c>
-      <c r="X79" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>-469.117947</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>-1715.71200388</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2035</v>
-      </c>
-      <c r="E80" t="s">
-        <v>62</v>
-      </c>
-      <c r="F80" t="s">
-        <v>57</v>
-      </c>
-      <c r="G80" t="s">
-        <v>36</v>
-      </c>
-      <c r="H80" t="n">
-        <v>267.2579151</v>
-      </c>
-      <c r="I80" t="s">
-        <v>37</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2</v>
-      </c>
-      <c r="K80" t="s">
-        <v>38</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="s">
-        <v>58</v>
-      </c>
-      <c r="N80" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P80" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>41</v>
-      </c>
-      <c r="R80" t="s">
-        <v>42</v>
-      </c>
-      <c r="S80" t="s">
-        <v>43</v>
-      </c>
-      <c r="T80" t="s">
-        <v>44</v>
-      </c>
-      <c r="U80" t="s">
-        <v>45</v>
-      </c>
-      <c r="V80" t="s">
-        <v>3</v>
-      </c>
-      <c r="W80" t="s">
-        <v>7</v>
-      </c>
-      <c r="X80" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z80" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>-952.0668739</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>-1715.71200388</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2035</v>
-      </c>
-      <c r="E81" t="s">
-        <v>62</v>
-      </c>
-      <c r="F81" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" t="n">
-        <v>84.01403352</v>
-      </c>
-      <c r="I81" t="s">
-        <v>37</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2</v>
-      </c>
-      <c r="K81" t="s">
-        <v>38</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="s">
-        <v>60</v>
-      </c>
-      <c r="N81" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P81" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>41</v>
-      </c>
-      <c r="R81" t="s">
-        <v>42</v>
-      </c>
-      <c r="S81" t="s">
-        <v>43</v>
-      </c>
-      <c r="T81" t="s">
-        <v>44</v>
-      </c>
-      <c r="U81" t="s">
-        <v>45</v>
-      </c>
-      <c r="V81" t="s">
-        <v>3</v>
-      </c>
-      <c r="W81" t="s">
-        <v>7</v>
-      </c>
-      <c r="X81" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z81" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>-41.79633388</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>-1715.71200388</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E82" t="s">
-        <v>62</v>
-      </c>
-      <c r="F82" t="s">
-        <v>49</v>
-      </c>
-      <c r="G82" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-800</v>
-      </c>
-      <c r="I82" t="s">
-        <v>37</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2</v>
-      </c>
-      <c r="K82" t="s">
-        <v>38</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="s">
-        <v>50</v>
-      </c>
-      <c r="N82" t="s">
-        <v>3</v>
-      </c>
-      <c r="O82" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P82" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>41</v>
-      </c>
-      <c r="R82" t="s">
-        <v>42</v>
-      </c>
-      <c r="S82" t="s">
-        <v>43</v>
-      </c>
-      <c r="T82" t="s">
-        <v>44</v>
-      </c>
-      <c r="U82" t="s">
-        <v>45</v>
-      </c>
-      <c r="V82" t="s">
-        <v>3</v>
-      </c>
-      <c r="W82" t="s">
-        <v>7</v>
-      </c>
-      <c r="X82" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z82" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>-1466.7242053</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E83" t="s">
-        <v>62</v>
-      </c>
-      <c r="F83" t="s">
-        <v>51</v>
-      </c>
-      <c r="G83" t="s">
-        <v>36</v>
-      </c>
-      <c r="H83" t="n">
-        <v>310.3409665</v>
-      </c>
-      <c r="I83" t="s">
-        <v>37</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2</v>
-      </c>
-      <c r="K83" t="s">
-        <v>38</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="s">
-        <v>52</v>
-      </c>
-      <c r="N83" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P83" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>41</v>
-      </c>
-      <c r="R83" t="s">
-        <v>42</v>
-      </c>
-      <c r="S83" t="s">
-        <v>43</v>
-      </c>
-      <c r="T83" t="s">
-        <v>44</v>
-      </c>
-      <c r="U83" t="s">
-        <v>45</v>
-      </c>
-      <c r="V83" t="s">
-        <v>3</v>
-      </c>
-      <c r="W83" t="s">
-        <v>7</v>
-      </c>
-      <c r="X83" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z83" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>-185.4493821</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>-1466.7242053</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C84" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E84" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84" t="s">
-        <v>36</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1015.467492</v>
-      </c>
-      <c r="I84" t="s">
-        <v>37</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2</v>
-      </c>
-      <c r="K84" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="s">
-        <v>54</v>
-      </c>
-      <c r="N84" t="s">
-        <v>3</v>
-      </c>
-      <c r="O84" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P84" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>41</v>
-      </c>
-      <c r="R84" t="s">
-        <v>42</v>
-      </c>
-      <c r="S84" t="s">
-        <v>43</v>
-      </c>
-      <c r="T84" t="s">
-        <v>44</v>
-      </c>
-      <c r="U84" t="s">
-        <v>45</v>
-      </c>
-      <c r="V84" t="s">
-        <v>3</v>
-      </c>
-      <c r="W84" t="s">
-        <v>7</v>
-      </c>
-      <c r="X84" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z84" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>175.3342581</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>-1466.7242053</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>61</v>
-      </c>
-      <c r="B85" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E85" t="s">
-        <v>62</v>
-      </c>
-      <c r="F85" t="s">
-        <v>55</v>
-      </c>
-      <c r="G85" t="s">
-        <v>36</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1200.129155</v>
-      </c>
-      <c r="I85" t="s">
-        <v>37</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2</v>
-      </c>
-      <c r="K85" t="s">
-        <v>38</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="s">
-        <v>56</v>
-      </c>
-      <c r="N85" t="s">
-        <v>3</v>
-      </c>
-      <c r="O85" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P85" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>41</v>
-      </c>
-      <c r="R85" t="s">
-        <v>42</v>
-      </c>
-      <c r="S85" t="s">
-        <v>43</v>
-      </c>
-      <c r="T85" t="s">
-        <v>44</v>
-      </c>
-      <c r="U85" t="s">
-        <v>45</v>
-      </c>
-      <c r="V85" t="s">
-        <v>3</v>
-      </c>
-      <c r="W85" t="s">
-        <v>7</v>
-      </c>
-      <c r="X85" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z85" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>-520.093942</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>-1466.7242053</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E86" t="s">
-        <v>62</v>
-      </c>
-      <c r="F86" t="s">
-        <v>57</v>
-      </c>
-      <c r="G86" t="s">
-        <v>36</v>
-      </c>
-      <c r="H86" t="n">
-        <v>331.6527081</v>
-      </c>
-      <c r="I86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2</v>
-      </c>
-      <c r="K86" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="s">
-        <v>58</v>
-      </c>
-      <c r="N86" t="s">
-        <v>3</v>
-      </c>
-      <c r="O86" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P86" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>41</v>
-      </c>
-      <c r="R86" t="s">
-        <v>42</v>
-      </c>
-      <c r="S86" t="s">
-        <v>43</v>
-      </c>
-      <c r="T86" t="s">
-        <v>44</v>
-      </c>
-      <c r="U86" t="s">
-        <v>45</v>
-      </c>
-      <c r="V86" t="s">
-        <v>3</v>
-      </c>
-      <c r="W86" t="s">
-        <v>7</v>
-      </c>
-      <c r="X86" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z86" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>-887.6720809</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>-1466.7242053</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E87" t="s">
-        <v>62</v>
-      </c>
-      <c r="F87" t="s">
-        <v>59</v>
-      </c>
-      <c r="G87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H87" t="n">
-        <v>76.967309</v>
-      </c>
-      <c r="I87" t="s">
-        <v>37</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2</v>
-      </c>
-      <c r="K87" t="s">
-        <v>38</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="s">
-        <v>60</v>
-      </c>
-      <c r="N87" t="s">
-        <v>3</v>
-      </c>
-      <c r="O87" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P87" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>41</v>
-      </c>
-      <c r="R87" t="s">
-        <v>42</v>
-      </c>
-      <c r="S87" t="s">
-        <v>43</v>
-      </c>
-      <c r="T87" t="s">
-        <v>44</v>
-      </c>
-      <c r="U87" t="s">
-        <v>45</v>
-      </c>
-      <c r="V87" t="s">
-        <v>3</v>
-      </c>
-      <c r="W87" t="s">
-        <v>7</v>
-      </c>
-      <c r="X87" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z87" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>-48.8430584</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>-1466.7242053</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2045</v>
-      </c>
-      <c r="E88" t="s">
-        <v>62</v>
-      </c>
-      <c r="F88" t="s">
-        <v>49</v>
-      </c>
-      <c r="G88" t="s">
-        <v>36</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-800</v>
-      </c>
-      <c r="I88" t="s">
-        <v>37</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K88" t="s">
-        <v>38</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="s">
-        <v>50</v>
-      </c>
-      <c r="N88" t="s">
-        <v>3</v>
-      </c>
-      <c r="O88" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P88" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>41</v>
-      </c>
-      <c r="R88" t="s">
-        <v>42</v>
-      </c>
-      <c r="S88" t="s">
-        <v>43</v>
-      </c>
-      <c r="T88" t="s">
-        <v>44</v>
-      </c>
-      <c r="U88" t="s">
-        <v>45</v>
-      </c>
-      <c r="V88" t="s">
-        <v>3</v>
-      </c>
-      <c r="W88" t="s">
-        <v>7</v>
-      </c>
-      <c r="X88" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z88" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>-1205.48136494</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2045</v>
-      </c>
-      <c r="E89" t="s">
-        <v>62</v>
-      </c>
-      <c r="F89" t="s">
-        <v>51</v>
-      </c>
-      <c r="G89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" t="n">
-        <v>349.2233112</v>
-      </c>
-      <c r="I89" t="s">
-        <v>37</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2</v>
-      </c>
-      <c r="K89" t="s">
-        <v>38</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="s">
-        <v>52</v>
-      </c>
-      <c r="N89" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P89" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>41</v>
-      </c>
-      <c r="R89" t="s">
-        <v>42</v>
-      </c>
-      <c r="S89" t="s">
-        <v>43</v>
-      </c>
-      <c r="T89" t="s">
-        <v>44</v>
-      </c>
-      <c r="U89" t="s">
-        <v>45</v>
-      </c>
-      <c r="V89" t="s">
-        <v>3</v>
-      </c>
-      <c r="W89" t="s">
-        <v>7</v>
-      </c>
-      <c r="X89" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z89" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>-146.5670374</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>-1205.48136494</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>61</v>
-      </c>
-      <c r="B90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2045</v>
-      </c>
-      <c r="E90" t="s">
-        <v>62</v>
-      </c>
-      <c r="F90" t="s">
-        <v>53</v>
-      </c>
-      <c r="G90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1081.947373</v>
-      </c>
-      <c r="I90" t="s">
-        <v>37</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2</v>
-      </c>
-      <c r="K90" t="s">
-        <v>38</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="s">
-        <v>54</v>
-      </c>
-      <c r="N90" t="s">
-        <v>3</v>
-      </c>
-      <c r="O90" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P90" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>41</v>
-      </c>
-      <c r="R90" t="s">
-        <v>42</v>
-      </c>
-      <c r="S90" t="s">
-        <v>43</v>
-      </c>
-      <c r="T90" t="s">
-        <v>44</v>
-      </c>
-      <c r="U90" t="s">
-        <v>45</v>
-      </c>
-      <c r="V90" t="s">
-        <v>3</v>
-      </c>
-      <c r="W90" t="s">
-        <v>7</v>
-      </c>
-      <c r="X90" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z90" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>241.8141391</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>-1205.48136494</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B91" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2045</v>
-      </c>
-      <c r="E91" t="s">
-        <v>62</v>
-      </c>
-      <c r="F91" t="s">
-        <v>55</v>
-      </c>
-      <c r="G91" t="s">
-        <v>36</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1195.49968</v>
-      </c>
-      <c r="I91" t="s">
-        <v>37</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2</v>
-      </c>
-      <c r="K91" t="s">
-        <v>38</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="s">
-        <v>56</v>
-      </c>
-      <c r="N91" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P91" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>41</v>
-      </c>
-      <c r="R91" t="s">
-        <v>42</v>
-      </c>
-      <c r="S91" t="s">
-        <v>43</v>
-      </c>
-      <c r="T91" t="s">
-        <v>44</v>
-      </c>
-      <c r="U91" t="s">
-        <v>45</v>
-      </c>
-      <c r="V91" t="s">
-        <v>3</v>
-      </c>
-      <c r="W91" t="s">
-        <v>7</v>
-      </c>
-      <c r="X91" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z91" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>-524.723417</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>-1205.48136494</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>61</v>
-      </c>
-      <c r="B92" t="s">
-        <v>32</v>
-      </c>
-      <c r="C92" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2045</v>
-      </c>
-      <c r="E92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F92" t="s">
-        <v>57</v>
-      </c>
-      <c r="G92" t="s">
-        <v>36</v>
-      </c>
-      <c r="H92" t="n">
-        <v>496.3514522</v>
-      </c>
-      <c r="I92" t="s">
-        <v>37</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2</v>
-      </c>
-      <c r="K92" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="s">
-        <v>58</v>
-      </c>
-      <c r="N92" t="s">
-        <v>3</v>
-      </c>
-      <c r="O92" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P92" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R92" t="s">
-        <v>42</v>
-      </c>
-      <c r="S92" t="s">
-        <v>43</v>
-      </c>
-      <c r="T92" t="s">
-        <v>44</v>
-      </c>
-      <c r="U92" t="s">
-        <v>45</v>
-      </c>
-      <c r="V92" t="s">
-        <v>3</v>
-      </c>
-      <c r="W92" t="s">
-        <v>7</v>
-      </c>
-      <c r="X92" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z92" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>-722.9733368</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>-1205.48136494</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" t="n">
-        <v>2045</v>
-      </c>
-      <c r="E93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F93" t="s">
-        <v>59</v>
-      </c>
-      <c r="G93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" t="n">
-        <v>72.77865456</v>
-      </c>
-      <c r="I93" t="s">
-        <v>37</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2</v>
-      </c>
-      <c r="K93" t="s">
-        <v>38</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="s">
-        <v>60</v>
-      </c>
-      <c r="N93" t="s">
-        <v>3</v>
-      </c>
-      <c r="O93" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P93" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>41</v>
-      </c>
-      <c r="R93" t="s">
-        <v>42</v>
-      </c>
-      <c r="S93" t="s">
-        <v>43</v>
-      </c>
-      <c r="T93" t="s">
-        <v>44</v>
-      </c>
-      <c r="U93" t="s">
-        <v>45</v>
-      </c>
-      <c r="V93" t="s">
-        <v>3</v>
-      </c>
-      <c r="W93" t="s">
-        <v>7</v>
-      </c>
-      <c r="X93" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z93" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>-53.03171284</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>-1205.48136494</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>61</v>
-      </c>
-      <c r="B94" t="s">
-        <v>32</v>
-      </c>
-      <c r="C94" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" t="n">
-        <v>2050</v>
-      </c>
-      <c r="E94" t="s">
-        <v>62</v>
-      </c>
-      <c r="F94" t="s">
-        <v>49</v>
-      </c>
-      <c r="G94" t="s">
-        <v>36</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-800</v>
-      </c>
-      <c r="I94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2</v>
-      </c>
-      <c r="K94" t="s">
-        <v>38</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="s">
-        <v>50</v>
-      </c>
-      <c r="N94" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P94" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>41</v>
-      </c>
-      <c r="R94" t="s">
-        <v>42</v>
-      </c>
-      <c r="S94" t="s">
-        <v>43</v>
-      </c>
-      <c r="T94" t="s">
-        <v>44</v>
-      </c>
-      <c r="U94" t="s">
-        <v>45</v>
-      </c>
-      <c r="V94" t="s">
-        <v>3</v>
-      </c>
-      <c r="W94" t="s">
-        <v>7</v>
-      </c>
-      <c r="X94" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z94" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB94" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>-972.53010122</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>61</v>
-      </c>
-      <c r="B95" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" t="n">
-        <v>2050</v>
-      </c>
-      <c r="E95" t="s">
-        <v>62</v>
-      </c>
-      <c r="F95" t="s">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
-      </c>
-      <c r="H95" t="n">
-        <v>351.659574</v>
-      </c>
-      <c r="I95" t="s">
-        <v>37</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2</v>
-      </c>
-      <c r="K95" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="s">
-        <v>52</v>
-      </c>
-      <c r="N95" t="s">
-        <v>3</v>
-      </c>
-      <c r="O95" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P95" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>41</v>
-      </c>
-      <c r="R95" t="s">
-        <v>42</v>
-      </c>
-      <c r="S95" t="s">
-        <v>43</v>
-      </c>
-      <c r="T95" t="s">
-        <v>44</v>
-      </c>
-      <c r="U95" t="s">
-        <v>45</v>
-      </c>
-      <c r="V95" t="s">
-        <v>3</v>
-      </c>
-      <c r="W95" t="s">
-        <v>7</v>
-      </c>
-      <c r="X95" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z95" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>-144.1307746</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>-972.53010122</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" t="s">
-        <v>32</v>
-      </c>
-      <c r="C96" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2050</v>
-      </c>
-      <c r="E96" t="s">
-        <v>62</v>
-      </c>
-      <c r="F96" t="s">
-        <v>53</v>
-      </c>
-      <c r="G96" t="s">
-        <v>36</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1140.684585</v>
-      </c>
-      <c r="I96" t="s">
-        <v>37</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2</v>
-      </c>
-      <c r="K96" t="s">
-        <v>38</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="s">
-        <v>54</v>
-      </c>
-      <c r="N96" t="s">
-        <v>3</v>
-      </c>
-      <c r="O96" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P96" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>41</v>
-      </c>
-      <c r="R96" t="s">
-        <v>42</v>
-      </c>
-      <c r="S96" t="s">
-        <v>43</v>
-      </c>
-      <c r="T96" t="s">
-        <v>44</v>
-      </c>
-      <c r="U96" t="s">
-        <v>45</v>
-      </c>
-      <c r="V96" t="s">
-        <v>3</v>
-      </c>
-      <c r="W96" t="s">
-        <v>7</v>
-      </c>
-      <c r="X96" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z96" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC96" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>300.5513511</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>-972.53010122</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>61</v>
-      </c>
-      <c r="B97" t="s">
-        <v>32</v>
-      </c>
-      <c r="C97" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2050</v>
-      </c>
-      <c r="E97" t="s">
-        <v>62</v>
-      </c>
-      <c r="F97" t="s">
-        <v>55</v>
-      </c>
-      <c r="G97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1223.139804</v>
-      </c>
-      <c r="I97" t="s">
-        <v>37</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2</v>
-      </c>
-      <c r="K97" t="s">
-        <v>38</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="s">
-        <v>56</v>
-      </c>
-      <c r="N97" t="s">
-        <v>3</v>
-      </c>
-      <c r="O97" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P97" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>41</v>
-      </c>
-      <c r="R97" t="s">
-        <v>42</v>
-      </c>
-      <c r="S97" t="s">
-        <v>43</v>
-      </c>
-      <c r="T97" t="s">
-        <v>44</v>
-      </c>
-      <c r="U97" t="s">
-        <v>45</v>
-      </c>
-      <c r="V97" t="s">
-        <v>3</v>
-      </c>
-      <c r="W97" t="s">
-        <v>7</v>
-      </c>
-      <c r="X97" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>-497.083293</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>-972.53010122</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>61</v>
-      </c>
-      <c r="B98" t="s">
-        <v>32</v>
-      </c>
-      <c r="C98" t="s">
-        <v>33</v>
-      </c>
-      <c r="D98" t="n">
-        <v>2050</v>
-      </c>
-      <c r="E98" t="s">
-        <v>62</v>
-      </c>
-      <c r="F98" t="s">
-        <v>57</v>
-      </c>
-      <c r="G98" t="s">
-        <v>36</v>
-      </c>
-      <c r="H98" t="n">
-        <v>643.514668</v>
-      </c>
-      <c r="I98" t="s">
-        <v>37</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2</v>
-      </c>
-      <c r="K98" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="s">
-        <v>58</v>
-      </c>
-      <c r="N98" t="s">
-        <v>3</v>
-      </c>
-      <c r="O98" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P98" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>41</v>
-      </c>
-      <c r="R98" t="s">
-        <v>42</v>
-      </c>
-      <c r="S98" t="s">
-        <v>43</v>
-      </c>
-      <c r="T98" t="s">
-        <v>44</v>
-      </c>
-      <c r="U98" t="s">
-        <v>45</v>
-      </c>
-      <c r="V98" t="s">
-        <v>3</v>
-      </c>
-      <c r="W98" t="s">
-        <v>7</v>
-      </c>
-      <c r="X98" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z98" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>-575.810121</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>-972.53010122</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>61</v>
-      </c>
-      <c r="B99" t="s">
-        <v>32</v>
-      </c>
-      <c r="C99" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2050</v>
-      </c>
-      <c r="E99" t="s">
-        <v>62</v>
-      </c>
-      <c r="F99" t="s">
-        <v>59</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
-      </c>
-      <c r="H99" t="n">
-        <v>69.75310368</v>
-      </c>
-      <c r="I99" t="s">
-        <v>37</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2</v>
-      </c>
-      <c r="K99" t="s">
-        <v>38</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="s">
-        <v>60</v>
-      </c>
-      <c r="N99" t="s">
-        <v>3</v>
-      </c>
-      <c r="O99" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P99" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>41</v>
-      </c>
-      <c r="R99" t="s">
-        <v>42</v>
-      </c>
-      <c r="S99" t="s">
-        <v>43</v>
-      </c>
-      <c r="T99" t="s">
-        <v>44</v>
-      </c>
-      <c r="U99" t="s">
-        <v>45</v>
-      </c>
-      <c r="V99" t="s">
-        <v>3</v>
-      </c>
-      <c r="W99" t="s">
-        <v>7</v>
-      </c>
-      <c r="X99" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z99" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA99" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB99" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>-56.05726372</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>-972.53010122</v>
+        <v>3.34881036299999</v>
       </c>
     </row>
   </sheetData>
